--- a/Azarton/Startup.xlsx
+++ b/Azarton/Startup.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Development\Azarton\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Development\Azarton\ATC_MiThermometer\Azarton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{530ACE42-F14D-47FB-AC57-5106AC31B703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D37507-89B6-43A0-9CB5-5E2FB9F5F71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500"/>
+    <workbookView xWindow="4270" yWindow="110" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Startup" sheetId="1" r:id="rId1"/>
     <sheet name="Startup2" sheetId="2" r:id="rId2"/>
     <sheet name="Update" sheetId="3" r:id="rId3"/>
+    <sheet name="Update 2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="77">
   <si>
     <t>name</t>
   </si>
@@ -169,12 +170,96 @@
   </si>
   <si>
     <t>4.7e-05</t>
+  </si>
+  <si>
+    <t>Startup1</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Data Trailer</t>
+  </si>
+  <si>
+    <t>Data Startup (White)</t>
+  </si>
+  <si>
+    <t>Display Refresh ?</t>
+  </si>
+  <si>
+    <t>Data Header</t>
+  </si>
+  <si>
+    <t>SDA Low</t>
+  </si>
+  <si>
+    <t>140ms</t>
+  </si>
+  <si>
+    <t>80us</t>
+  </si>
+  <si>
+    <t>71us</t>
+  </si>
+  <si>
+    <t>10ms</t>
+  </si>
+  <si>
+    <t>23us</t>
+  </si>
+  <si>
+    <t>75us</t>
+  </si>
+  <si>
+    <t>30us</t>
+  </si>
+  <si>
+    <t>84ms</t>
+  </si>
+  <si>
+    <t>78us</t>
+  </si>
+  <si>
+    <t>4.3ms</t>
+  </si>
+  <si>
+    <t>1.6s</t>
+  </si>
+  <si>
+    <t>401ms</t>
+  </si>
+  <si>
+    <t>3.6ms</t>
+  </si>
+  <si>
+    <t>4.8ms</t>
+  </si>
+  <si>
+    <t>679ms</t>
+  </si>
+  <si>
+    <t>63us</t>
+  </si>
+  <si>
+    <t>4.6ms</t>
+  </si>
+  <si>
+    <t>680ms</t>
+  </si>
+  <si>
+    <t>6s</t>
+  </si>
+  <si>
+    <t>Init 1</t>
+  </si>
+  <si>
+    <t>Init 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -311,7 +396,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -491,6 +576,42 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -652,10 +773,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1010,20 +1139,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="13.6328125" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" customWidth="1"/>
+    <col min="7" max="7" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1046,578 +1177,566 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
         <v>640149842</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D4" s="2">
         <v>5395.8333300000004</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="G4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="G5" s="7"/>
+      <c r="H5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
         <v>641158171</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D6" s="2">
         <v>2054.1666700000001</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="G7" s="7"/>
+      <c r="H7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
         <v>642162438</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D8" s="2">
         <v>2029.1666700000001</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="G8" s="4"/>
+      <c r="H8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="G9" s="7"/>
+      <c r="H9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
         <v>642172204</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D10" s="2">
         <v>2016.6666700000001</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="G10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
         <v>642175917</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D11" s="2">
         <v>2029.1666700000001</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="G11" s="5"/>
+      <c r="I11" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
         <v>642178942</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D12" s="2">
         <v>2016.6666700000001</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E12" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="G12" s="5"/>
+      <c r="I12" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
         <v>64218195</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D13" s="2">
         <v>2041.6666700000001</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E13" t="s">
         <v>14</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="G13" s="5"/>
+      <c r="I13" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1">
         <v>642185683</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D14" s="2">
         <v>2029.1666700000001</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E14" t="s">
         <v>15</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="G14" s="5"/>
+      <c r="I14" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1">
         <v>6421887</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D15" s="2">
         <v>2029.1666700000001</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E15" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="G15" s="5"/>
+      <c r="I15" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
         <v>642191725</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D16" s="2">
         <v>2045.8333299999999</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E16" t="s">
         <v>17</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="G16" s="5"/>
+      <c r="I16" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="G17" s="7"/>
+      <c r="H17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
         <v>642197042</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D18" s="2">
         <v>2066.6666700000001</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E18" t="s">
         <v>18</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="G18" s="5"/>
+      <c r="I18" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1">
         <v>642200096</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D19" s="2">
         <v>2020.8333299999999</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E19" t="s">
         <v>19</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="G19" s="5"/>
+      <c r="I19" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1">
         <v>642203113</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2041.6666700000001</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1">
-        <v>642206825</v>
-      </c>
-      <c r="D15" s="2">
-        <v>2066.6666700000001</v>
-      </c>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1">
-        <v>642210612</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2029.1666700000001</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1">
-        <v>650642813</v>
-      </c>
-      <c r="D17" s="2">
-        <v>5341.6666699999996</v>
-      </c>
-      <c r="E17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="1">
-        <v>650650521</v>
-      </c>
-      <c r="D18" s="2">
-        <v>2041.6666700000001</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1">
-        <v>651086346</v>
-      </c>
-      <c r="D19" s="2">
-        <v>2629.1666700000001</v>
-      </c>
-      <c r="E19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="1">
-        <v>651091342</v>
       </c>
       <c r="D20" s="2">
         <v>2041.6666700000001</v>
       </c>
       <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="I20" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1">
+        <v>642206825</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2066.6666700000001</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="I21" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1">
+        <v>642210612</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2029.1666700000001</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="I22" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="G23" s="7"/>
+      <c r="H23" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1">
+        <v>650642813</v>
+      </c>
+      <c r="D24" s="2">
+        <v>5341.6666699999996</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1">
+        <v>650650521</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2041.6666700000001</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C26" s="1"/>
+      <c r="D26" s="2"/>
+      <c r="G26" s="7"/>
+      <c r="H26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1">
+        <v>651086346</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2629.1666700000001</v>
+      </c>
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1">
+        <v>651091342</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2041.6666700000001</v>
+      </c>
+      <c r="E28" t="s">
         <v>25</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="G28" s="5"/>
+      <c r="I28" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1">
         <v>651094379</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D29" s="2">
         <v>2029.1666700000001</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E29" t="s">
         <v>16</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F29" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="G29" s="5"/>
+      <c r="I29" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1">
         <v>651100471</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D30" s="2">
         <v>4841.6666699999996</v>
-      </c>
-      <c r="E22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1">
-        <v>651107683</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1979.1666700000001</v>
-      </c>
-      <c r="E23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1">
-        <v>651110729</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1979.1666700000001</v>
-      </c>
-      <c r="E24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="1">
-        <v>651113771</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1983.3333299999999</v>
-      </c>
-      <c r="E25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="1">
-        <v>651116817</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1979.1666700000001</v>
-      </c>
-      <c r="E26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="1">
-        <v>651119862</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1979.1666700000001</v>
-      </c>
-      <c r="E27" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="1">
-        <v>651122908</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1979.1666700000001</v>
-      </c>
-      <c r="E28" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="1">
-        <v>65112595</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1979.1666700000001</v>
-      </c>
-      <c r="E29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="1">
-        <v>651128996</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1979.1666700000001</v>
       </c>
       <c r="E30" t="s">
         <v>26</v>
@@ -1625,8 +1744,11 @@
       <c r="F30" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G30" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1634,7 +1756,7 @@
         <v>6</v>
       </c>
       <c r="C31" s="1">
-        <v>651132042</v>
+        <v>651107683</v>
       </c>
       <c r="D31" s="2">
         <v>1979.1666700000001</v>
@@ -1645,8 +1767,9 @@
       <c r="F31" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1654,10 +1777,10 @@
         <v>6</v>
       </c>
       <c r="C32" s="1">
-        <v>651135083</v>
+        <v>651110729</v>
       </c>
       <c r="D32" s="2">
-        <v>1983.3333299999999</v>
+        <v>1979.1666700000001</v>
       </c>
       <c r="E32" t="s">
         <v>26</v>
@@ -1665,6 +1788,7 @@
       <c r="F32" t="s">
         <v>26</v>
       </c>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
@@ -1674,10 +1798,10 @@
         <v>6</v>
       </c>
       <c r="C33" s="1">
-        <v>651138129</v>
+        <v>651113771</v>
       </c>
       <c r="D33" s="2">
-        <v>1979.1666700000001</v>
+        <v>1983.3333299999999</v>
       </c>
       <c r="E33" t="s">
         <v>26</v>
@@ -1685,6 +1809,7 @@
       <c r="F33" t="s">
         <v>26</v>
       </c>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
@@ -1694,7 +1819,7 @@
         <v>6</v>
       </c>
       <c r="C34" s="1">
-        <v>651141175</v>
+        <v>651116817</v>
       </c>
       <c r="D34" s="2">
         <v>1979.1666700000001</v>
@@ -1705,6 +1830,7 @@
       <c r="F34" t="s">
         <v>26</v>
       </c>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
@@ -1714,10 +1840,10 @@
         <v>6</v>
       </c>
       <c r="C35" s="1">
-        <v>651144217</v>
+        <v>651119862</v>
       </c>
       <c r="D35" s="2">
-        <v>1983.3333299999999</v>
+        <v>1979.1666700000001</v>
       </c>
       <c r="E35" t="s">
         <v>26</v>
@@ -1725,6 +1851,7 @@
       <c r="F35" t="s">
         <v>26</v>
       </c>
+      <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
@@ -1734,7 +1861,7 @@
         <v>6</v>
       </c>
       <c r="C36" s="1">
-        <v>651147262</v>
+        <v>651122908</v>
       </c>
       <c r="D36" s="2">
         <v>1979.1666700000001</v>
@@ -1745,6 +1872,7 @@
       <c r="F36" t="s">
         <v>26</v>
       </c>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
@@ -1754,7 +1882,7 @@
         <v>6</v>
       </c>
       <c r="C37" s="1">
-        <v>651150983</v>
+        <v>65112595</v>
       </c>
       <c r="D37" s="2">
         <v>1979.1666700000001</v>
@@ -1765,6 +1893,7 @@
       <c r="F37" t="s">
         <v>26</v>
       </c>
+      <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
@@ -1774,17 +1903,18 @@
         <v>6</v>
       </c>
       <c r="C38" s="1">
-        <v>651153954</v>
+        <v>651128996</v>
       </c>
       <c r="D38" s="2">
-        <v>2054.1666700000001</v>
+        <v>1979.1666700000001</v>
       </c>
       <c r="E38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F38" t="s">
-        <v>27</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
@@ -1794,17 +1924,18 @@
         <v>6</v>
       </c>
       <c r="C39" s="1">
-        <v>651157004</v>
+        <v>651132042</v>
       </c>
       <c r="D39" s="2">
-        <v>2041.6666700000001</v>
+        <v>1979.1666700000001</v>
       </c>
       <c r="E39" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F39" t="s">
-        <v>28</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
@@ -1814,17 +1945,18 @@
         <v>6</v>
       </c>
       <c r="C40" s="1">
-        <v>651160717</v>
+        <v>651135083</v>
       </c>
       <c r="D40" s="2">
-        <v>2066.6666700000001</v>
+        <v>1983.3333299999999</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
@@ -1834,17 +1966,18 @@
         <v>6</v>
       </c>
       <c r="C41" s="1">
-        <v>819234675</v>
+        <v>651138129</v>
       </c>
       <c r="D41" s="2">
-        <v>5354.1666699999996</v>
+        <v>1979.1666700000001</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
@@ -1854,17 +1987,18 @@
         <v>6</v>
       </c>
       <c r="C42" s="1">
-        <v>819242396</v>
+        <v>651141175</v>
       </c>
       <c r="D42" s="2">
-        <v>2016.6666700000001</v>
+        <v>1979.1666700000001</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
@@ -1874,17 +2008,18 @@
         <v>6</v>
       </c>
       <c r="C43" s="1">
-        <v>819245408</v>
+        <v>651144217</v>
       </c>
       <c r="D43" s="2">
-        <v>2054.1666700000001</v>
+        <v>1983.3333299999999</v>
       </c>
       <c r="E43" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
@@ -1894,20 +2029,18 @@
         <v>6</v>
       </c>
       <c r="C44" s="1">
-        <v>859342538</v>
+        <v>651147262</v>
       </c>
       <c r="D44" s="2">
-        <v>5320.8333300000004</v>
+        <v>1979.1666700000001</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s">
-        <v>11</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
@@ -1917,20 +2050,18 @@
         <v>6</v>
       </c>
       <c r="C45" s="1">
-        <v>859350246</v>
+        <v>651150983</v>
       </c>
       <c r="D45" s="2">
-        <v>2004.1666700000001</v>
+        <v>1979.1666700000001</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
-      </c>
-      <c r="G45" t="s">
-        <v>33</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
@@ -1940,19 +2071,19 @@
         <v>6</v>
       </c>
       <c r="C46" s="1">
-        <v>859353246</v>
+        <v>651153954</v>
       </c>
       <c r="D46" s="2">
-        <v>1995.8333299999999</v>
+        <v>2054.1666700000001</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F46" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -1963,20 +2094,18 @@
         <v>6</v>
       </c>
       <c r="C47" s="1">
-        <v>859356229</v>
+        <v>651157004</v>
       </c>
       <c r="D47" s="2">
-        <v>2016.6666700000001</v>
+        <v>2041.6666700000001</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
-      </c>
-      <c r="G47" t="s">
-        <v>34</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
@@ -1986,45 +2115,28 @@
         <v>6</v>
       </c>
       <c r="C48" s="1">
-        <v>859359938</v>
+        <v>651160717</v>
       </c>
       <c r="D48" s="2">
-        <v>2004.1666700000001</v>
+        <v>2066.6666700000001</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
-      </c>
-      <c r="G48" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="1">
-        <v>859362933</v>
-      </c>
-      <c r="D49" s="2">
-        <v>2004.1666700000001</v>
-      </c>
-      <c r="E49" t="s">
-        <v>33</v>
-      </c>
-      <c r="F49" t="s">
-        <v>33</v>
-      </c>
-      <c r="G49" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C49" s="1"/>
+      <c r="D49" s="2"/>
+      <c r="G49" s="7"/>
+      <c r="H49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -2032,22 +2144,25 @@
         <v>6</v>
       </c>
       <c r="C50" s="1">
-        <v>859365933</v>
+        <v>819234675</v>
       </c>
       <c r="D50" s="2">
-        <v>2029.1666700000001</v>
+        <v>5354.1666699999996</v>
       </c>
       <c r="E50" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
-      </c>
-      <c r="G50" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -2055,22 +2170,20 @@
         <v>6</v>
       </c>
       <c r="C51" s="1">
-        <v>859372583</v>
+        <v>819242396</v>
       </c>
       <c r="D51" s="2">
-        <v>2066.6666700000001</v>
+        <v>2016.6666700000001</v>
       </c>
       <c r="E51" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -2078,1021 +2191,25 @@
         <v>6</v>
       </c>
       <c r="C52" s="1">
-        <v>859375642</v>
+        <v>819245408</v>
       </c>
       <c r="D52" s="2">
-        <v>2016.6666700000001</v>
+        <v>2054.1666700000001</v>
       </c>
       <c r="E52" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="1">
-        <v>859378654</v>
-      </c>
-      <c r="D53" s="2">
-        <v>2041.6666700000001</v>
-      </c>
-      <c r="E53" t="s">
-        <v>20</v>
-      </c>
-      <c r="F53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="1">
-        <v>859382367</v>
-      </c>
-      <c r="D54" s="2">
-        <v>2070.8333299999999</v>
-      </c>
-      <c r="E54" t="s">
-        <v>21</v>
-      </c>
-      <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="1">
-        <v>859386158</v>
-      </c>
-      <c r="D55" s="2">
-        <v>2029.1666700000001</v>
-      </c>
-      <c r="E55" t="s">
-        <v>22</v>
-      </c>
-      <c r="F55" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="1">
-        <v>8597497</v>
-      </c>
-      <c r="D56" s="2">
-        <v>0.27374999999999999</v>
-      </c>
-      <c r="E56" t="s">
-        <v>23</v>
-      </c>
-      <c r="F56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="1">
-        <v>859754804</v>
-      </c>
-      <c r="D57" s="2">
-        <v>2041.6666700000001</v>
-      </c>
-      <c r="E57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" t="s">
-        <v>7</v>
-      </c>
-      <c r="G57" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="1">
-        <v>860238658</v>
-      </c>
-      <c r="D58" s="2">
-        <v>4695.8333300000004</v>
-      </c>
-      <c r="E58" t="s">
-        <v>24</v>
-      </c>
-      <c r="F58" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="1">
-        <v>860245046</v>
-      </c>
-      <c r="D59" s="2">
-        <v>2041.6666700000001</v>
-      </c>
-      <c r="E59" t="s">
-        <v>25</v>
-      </c>
-      <c r="F59" t="s">
-        <v>25</v>
-      </c>
-      <c r="G59" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="1">
-        <v>860248079</v>
-      </c>
-      <c r="D60" s="2">
-        <v>2029.1666700000001</v>
-      </c>
-      <c r="E60" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="1">
-        <v>860254163</v>
-      </c>
-      <c r="D61" s="2">
-        <v>4841.6666699999996</v>
-      </c>
-      <c r="E61" t="s">
-        <v>26</v>
-      </c>
-      <c r="F61" t="s">
-        <v>26</v>
-      </c>
-      <c r="G61" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="1">
-        <v>860261363</v>
-      </c>
-      <c r="D62" s="2">
-        <v>2179.1666700000001</v>
-      </c>
-      <c r="E62" t="s">
-        <v>36</v>
-      </c>
-      <c r="F62" t="s">
-        <v>36</v>
-      </c>
-      <c r="G62" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="1">
-        <v>860264596</v>
-      </c>
-      <c r="D63" s="2">
-        <v>2029.1666700000001</v>
-      </c>
-      <c r="E63" t="s">
-        <v>37</v>
-      </c>
-      <c r="F63" t="s">
-        <v>37</v>
-      </c>
-      <c r="G63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="1">
-        <v>860267679</v>
-      </c>
-      <c r="D64" s="2">
-        <v>1979.1666700000001</v>
-      </c>
-      <c r="E64" t="s">
-        <v>26</v>
-      </c>
-      <c r="F64" t="s">
-        <v>42</v>
-      </c>
-      <c r="G64" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="1">
-        <v>860270708</v>
-      </c>
-      <c r="D65" s="2">
-        <v>2054.1666700000001</v>
-      </c>
-      <c r="E65" t="s">
-        <v>38</v>
-      </c>
-      <c r="F65" t="s">
-        <v>43</v>
-      </c>
-      <c r="G65" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>5</v>
-      </c>
-      <c r="B66" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="1">
-        <v>860273817</v>
-      </c>
-      <c r="D66" s="2">
-        <v>2054.1666700000001</v>
-      </c>
-      <c r="E66" t="s">
-        <v>39</v>
-      </c>
-      <c r="F66" t="s">
-        <v>39</v>
-      </c>
-      <c r="G66" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="1">
-        <v>860276925</v>
-      </c>
-      <c r="D67" s="2">
-        <v>2029.1666700000001</v>
-      </c>
-      <c r="E67" t="s">
-        <v>40</v>
-      </c>
-      <c r="F67" t="s">
-        <v>40</v>
-      </c>
-      <c r="G67" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68" s="1">
-        <v>860280004</v>
-      </c>
-      <c r="D68" s="2">
-        <v>2004.1666700000001</v>
-      </c>
-      <c r="E68" t="s">
-        <v>41</v>
-      </c>
-      <c r="F68" t="s">
-        <v>41</v>
-      </c>
-      <c r="G68" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="1">
-        <v>860283062</v>
-      </c>
-      <c r="D69" s="2">
-        <v>2154.1666700000001</v>
-      </c>
-      <c r="E69" t="s">
-        <v>42</v>
-      </c>
-      <c r="F69" t="s">
-        <v>42</v>
-      </c>
-      <c r="G69" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" s="1">
-        <v>860286271</v>
-      </c>
-      <c r="D70" s="2">
-        <v>2029.1666700000001</v>
-      </c>
-      <c r="E70" t="s">
-        <v>43</v>
-      </c>
-      <c r="F70" t="s">
-        <v>43</v>
-      </c>
-      <c r="G70" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>5</v>
-      </c>
-      <c r="B71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="1">
-        <v>86028935</v>
-      </c>
-      <c r="D71" s="2">
-        <v>2133.3333299999999</v>
-      </c>
-      <c r="E71" t="s">
-        <v>44</v>
-      </c>
-      <c r="F71" t="s">
-        <v>42</v>
-      </c>
-      <c r="G71" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>5</v>
-      </c>
-      <c r="B72" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" s="1">
-        <v>860292533</v>
-      </c>
-      <c r="D72" s="2">
-        <v>2079.1666700000001</v>
-      </c>
-      <c r="E72" t="s">
-        <v>45</v>
-      </c>
-      <c r="F72" t="s">
-        <v>47</v>
-      </c>
-      <c r="G72" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>5</v>
-      </c>
-      <c r="B73" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" s="1">
-        <v>860295667</v>
-      </c>
-      <c r="D73" s="2">
-        <v>1979.1666700000001</v>
-      </c>
-      <c r="E73" t="s">
-        <v>26</v>
-      </c>
-      <c r="F73" t="s">
-        <v>36</v>
-      </c>
-      <c r="G73" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>5</v>
-      </c>
-      <c r="B74" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="1">
-        <v>8602987</v>
-      </c>
-      <c r="D74" s="2">
-        <v>2054.1666700000001</v>
-      </c>
-      <c r="E74" t="s">
-        <v>38</v>
-      </c>
-      <c r="F74" t="s">
-        <v>38</v>
-      </c>
-      <c r="G74" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>5</v>
-      </c>
-      <c r="B75" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" s="1">
-        <v>860301804</v>
-      </c>
-      <c r="D75" s="2">
-        <v>2029.1666700000001</v>
-      </c>
-      <c r="E75" t="s">
-        <v>46</v>
-      </c>
-      <c r="F75" t="s">
-        <v>46</v>
-      </c>
-      <c r="G75" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>5</v>
-      </c>
-      <c r="B76" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" s="1">
-        <v>860305562</v>
-      </c>
-      <c r="D76" s="2">
-        <v>1979.1666700000001</v>
-      </c>
-      <c r="E76" t="s">
-        <v>26</v>
-      </c>
-      <c r="F76" t="s">
-        <v>26</v>
-      </c>
-      <c r="G76" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>5</v>
-      </c>
-      <c r="B77" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" s="1">
-        <v>860308533</v>
-      </c>
-      <c r="D77" s="2">
-        <v>2054.1666700000001</v>
-      </c>
-      <c r="E77" t="s">
-        <v>27</v>
-      </c>
-      <c r="F77" t="s">
-        <v>27</v>
-      </c>
-      <c r="G77" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>5</v>
-      </c>
-      <c r="B78" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78" s="1">
-        <v>860311583</v>
-      </c>
-      <c r="D78" s="2">
-        <v>2041.6666700000001</v>
-      </c>
-      <c r="E78" t="s">
-        <v>28</v>
-      </c>
-      <c r="F78" t="s">
-        <v>28</v>
-      </c>
-      <c r="G78" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" s="1">
-        <v>860315296</v>
-      </c>
-      <c r="D79" s="2">
-        <v>2066.6666700000001</v>
-      </c>
-      <c r="E79" t="s">
-        <v>29</v>
-      </c>
-      <c r="F79" t="s">
-        <v>29</v>
-      </c>
-      <c r="G79" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>5</v>
-      </c>
-      <c r="B80" t="s">
-        <v>6</v>
-      </c>
-      <c r="C80" s="1">
-        <v>928302204</v>
-      </c>
-      <c r="D80" s="2">
-        <v>5358.3333300000004</v>
-      </c>
-      <c r="E80" t="s">
-        <v>30</v>
-      </c>
-      <c r="F80" t="s">
-        <v>30</v>
-      </c>
-      <c r="G80" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>5</v>
-      </c>
-      <c r="B81" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" s="1">
-        <v>928309925</v>
-      </c>
-      <c r="D81" s="2">
-        <v>2016.6666700000001</v>
-      </c>
-      <c r="E81" t="s">
-        <v>31</v>
-      </c>
-      <c r="F81" t="s">
-        <v>31</v>
-      </c>
-      <c r="G81" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>5</v>
-      </c>
-      <c r="B82" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" s="1">
-        <v>928312937</v>
-      </c>
-      <c r="D82" s="2">
-        <v>2058.3333299999999</v>
-      </c>
-      <c r="E82" t="s">
         <v>32</v>
       </c>
-      <c r="F82" t="s">
-        <v>32</v>
-      </c>
-      <c r="G82" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F84" t="s">
-        <v>33</v>
-      </c>
-      <c r="G84" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F85" t="s">
-        <v>8</v>
-      </c>
-      <c r="G85" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F86" t="s">
-        <v>34</v>
-      </c>
-      <c r="G86" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F87" t="s">
-        <v>33</v>
-      </c>
-      <c r="G87" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F88" t="s">
-        <v>33</v>
-      </c>
-      <c r="G88" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F89" t="s">
-        <v>35</v>
-      </c>
-      <c r="G89" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F91" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F92" t="s">
-        <v>20</v>
-      </c>
-      <c r="G92" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F93" t="s">
-        <v>21</v>
-      </c>
-      <c r="G93" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F94" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F95" t="s">
-        <v>23</v>
-      </c>
-      <c r="G95" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F96" t="s">
-        <v>7</v>
-      </c>
-      <c r="G96" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F97" t="s">
-        <v>24</v>
-      </c>
-      <c r="G97" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="98" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F98" t="s">
-        <v>25</v>
-      </c>
-      <c r="G98" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="99" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F99" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="100" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F100" t="s">
-        <v>26</v>
-      </c>
-      <c r="G100" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="101" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F101" t="s">
-        <v>36</v>
-      </c>
-      <c r="G101" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="102" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F102" t="s">
-        <v>37</v>
-      </c>
-      <c r="G102" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="103" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F103" t="s">
-        <v>42</v>
-      </c>
-      <c r="G103" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="104" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F104" t="s">
-        <v>43</v>
-      </c>
-      <c r="G104" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="105" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F105" t="s">
-        <v>39</v>
-      </c>
-      <c r="G105" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="106" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F106" t="s">
-        <v>40</v>
-      </c>
-      <c r="G106" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="107" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F107" t="s">
-        <v>41</v>
-      </c>
-      <c r="G107" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="108" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F108" t="s">
-        <v>42</v>
-      </c>
-      <c r="G108" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="109" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F109" t="s">
-        <v>43</v>
-      </c>
-      <c r="G109" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="110" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F110" t="s">
-        <v>42</v>
-      </c>
-      <c r="G110" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="111" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F111" t="s">
-        <v>47</v>
-      </c>
-      <c r="G111" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="112" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F112" t="s">
-        <v>36</v>
-      </c>
-      <c r="G112" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="113" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F113" t="s">
-        <v>38</v>
-      </c>
-      <c r="G113" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="114" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F114" t="s">
-        <v>46</v>
-      </c>
-      <c r="G114" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="115" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F115" t="s">
-        <v>26</v>
-      </c>
-      <c r="G115" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="116" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F116" t="s">
-        <v>27</v>
-      </c>
-      <c r="G116" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="117" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F117" t="s">
-        <v>28</v>
-      </c>
-      <c r="G117" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="118" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F118" t="s">
-        <v>29</v>
-      </c>
-      <c r="G118" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="119" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F119" t="s">
-        <v>30</v>
-      </c>
-      <c r="G119" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="120" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F120" t="s">
-        <v>31</v>
-      </c>
-      <c r="G120" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="121" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F121" t="s">
-        <v>32</v>
-      </c>
-      <c r="G121" t="s">
-        <v>32</v>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C53" s="1"/>
+      <c r="D53" s="2"/>
+      <c r="G53" s="7"/>
+      <c r="H53" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3101,10 +2218,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
@@ -5176,11 +4293,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E79"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6531,4 +5648,1255 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3942EBB-0A14-4345-B3B9-1429DA55C173}">
+  <dimension ref="A1:K43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1">
+        <v>859342538</v>
+      </c>
+      <c r="D1" s="2">
+        <v>5320.8333300000004</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>859350246</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2004.1666700000001</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>859353246</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1995.8333299999999</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>859356229</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2016.6666700000001</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>859359938</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2004.1666700000001</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>859362933</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2004.1666700000001</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>859365933</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2029.1666700000001</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>859372583</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2066.6666700000001</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>859375642</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2016.6666700000001</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>859378654</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2041.6666700000001</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>859382367</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2070.8333299999999</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>859386158</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2029.1666700000001</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8597497</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.27374999999999999</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>859754804</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2041.6666700000001</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="K16" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1">
+        <v>860238658</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4695.8333300000004</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>860245046</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2041.6666700000001</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1">
+        <v>860248079</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2029.1666700000001</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1">
+        <v>860254163</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4841.6666699999996</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1">
+        <v>860261363</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2179.1666700000001</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1">
+        <v>860264596</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2029.1666700000001</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1">
+        <v>860267679</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1979.1666700000001</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1">
+        <v>860270708</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2054.1666700000001</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1">
+        <v>860273817</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2054.1666700000001</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1">
+        <v>860276925</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2029.1666700000001</v>
+      </c>
+      <c r="E26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1">
+        <v>860280004</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2004.1666700000001</v>
+      </c>
+      <c r="E27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1">
+        <v>860283062</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2154.1666700000001</v>
+      </c>
+      <c r="E28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1">
+        <v>860286271</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2029.1666700000001</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1">
+        <v>86028935</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2133.3333299999999</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1">
+        <v>860292533</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2079.1666700000001</v>
+      </c>
+      <c r="E31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1">
+        <v>860295667</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1979.1666700000001</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1">
+        <v>8602987</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2054.1666700000001</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1">
+        <v>860301804</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2029.1666700000001</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1">
+        <v>860305562</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1979.1666700000001</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1">
+        <v>860308533</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2054.1666700000001</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1">
+        <v>860311583</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2041.6666700000001</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1">
+        <v>860315296</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2066.6666700000001</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1">
+        <v>928302204</v>
+      </c>
+      <c r="D40" s="2">
+        <v>5358.3333300000004</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1">
+        <v>928309925</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2016.6666700000001</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1">
+        <v>928312937</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2058.3333299999999</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>